--- a/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Ccl2-Ccr2.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Ccl2-Ccr2.xlsx
@@ -537,46 +537,46 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>36.856666</v>
+        <v>4.232924</v>
       </c>
       <c r="H2">
-        <v>110.569998</v>
+        <v>12.698772</v>
       </c>
       <c r="I2">
-        <v>0.1389359711410444</v>
+        <v>0.05792409824508498</v>
       </c>
       <c r="J2">
-        <v>0.1389359711410443</v>
+        <v>0.05792409824508497</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L2">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M2">
-        <v>9.506851333333332</v>
+        <v>0.02564166666666666</v>
       </c>
       <c r="N2">
-        <v>28.520554</v>
+        <v>0.07692499999999999</v>
       </c>
       <c r="O2">
-        <v>0.04665929098818478</v>
+        <v>0.0006780701807970013</v>
       </c>
       <c r="P2">
-        <v>0.04665929098818478</v>
+        <v>0.0006780701807970013</v>
       </c>
       <c r="Q2">
-        <v>350.3908443043213</v>
+        <v>0.1085392262333333</v>
       </c>
       <c r="R2">
-        <v>3153.517598738892</v>
+        <v>0.9768530361</v>
       </c>
       <c r="S2">
-        <v>0.006482653906196031</v>
+        <v>3.927660376954804E-05</v>
       </c>
       <c r="T2">
-        <v>0.00648265390619603</v>
+        <v>3.927660376954803E-05</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -599,16 +599,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>36.856666</v>
+        <v>4.232924</v>
       </c>
       <c r="H3">
-        <v>110.569998</v>
+        <v>12.698772</v>
       </c>
       <c r="I3">
-        <v>0.1389359711410444</v>
+        <v>0.05792409824508498</v>
       </c>
       <c r="J3">
-        <v>0.1389359711410443</v>
+        <v>0.05792409824508497</v>
       </c>
       <c r="K3">
         <v>1</v>
@@ -617,28 +617,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M3">
-        <v>0.01112833333333334</v>
+        <v>0.01112833333333333</v>
       </c>
       <c r="N3">
         <v>0.033385</v>
       </c>
       <c r="O3">
-        <v>5.461746744612847E-05</v>
+        <v>0.0002942784918545062</v>
       </c>
       <c r="P3">
-        <v>5.461746744612847E-05</v>
+        <v>0.0002942784918545062</v>
       </c>
       <c r="Q3">
-        <v>0.4101532648033334</v>
+        <v>0.04710538924666666</v>
       </c>
       <c r="R3">
-        <v>3.691379383230001</v>
+        <v>0.42394850322</v>
       </c>
       <c r="S3">
-        <v>7.588330880892235E-06</v>
+        <v>1.704581627359586E-05</v>
       </c>
       <c r="T3">
-        <v>7.588330880892234E-06</v>
+        <v>1.704581627359586E-05</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -661,16 +661,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>36.856666</v>
+        <v>4.232924</v>
       </c>
       <c r="H4">
-        <v>110.569998</v>
+        <v>12.698772</v>
       </c>
       <c r="I4">
-        <v>0.1389359711410444</v>
+        <v>0.05792409824508498</v>
       </c>
       <c r="J4">
-        <v>0.1389359711410443</v>
+        <v>0.05792409824508497</v>
       </c>
       <c r="K4">
         <v>2</v>
@@ -685,22 +685,22 @@
         <v>0.104612</v>
       </c>
       <c r="O4">
-        <v>0.0001711440019312383</v>
+        <v>0.0009221225577320236</v>
       </c>
       <c r="P4">
-        <v>0.0001711440019312383</v>
+        <v>0.0009221225577320235</v>
       </c>
       <c r="Q4">
-        <v>1.285216514530667</v>
+        <v>0.1476048818293333</v>
       </c>
       <c r="R4">
-        <v>11.566948630776</v>
+        <v>1.328443936464</v>
       </c>
       <c r="S4">
-        <v>2.377805811328137E-05</v>
+        <v>5.341311762807878E-05</v>
       </c>
       <c r="T4">
-        <v>2.377805811328136E-05</v>
+        <v>5.341311762807877E-05</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -723,16 +723,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>36.856666</v>
+        <v>4.232924</v>
       </c>
       <c r="H5">
-        <v>110.569998</v>
+        <v>12.698772</v>
       </c>
       <c r="I5">
-        <v>0.1389359711410444</v>
+        <v>0.05792409824508498</v>
       </c>
       <c r="J5">
-        <v>0.1389359711410443</v>
+        <v>0.05792409824508497</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -741,28 +741,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>194.1975953333333</v>
+        <v>37.74401233333333</v>
       </c>
       <c r="N5">
-        <v>582.592786</v>
+        <v>113.232037</v>
       </c>
       <c r="O5">
-        <v>0.9531149475424379</v>
+        <v>0.9981055287696164</v>
       </c>
       <c r="P5">
-        <v>0.9531149475424379</v>
+        <v>0.9981055287696164</v>
       </c>
       <c r="Q5">
-        <v>7157.475909203825</v>
+        <v>159.7675356620626</v>
       </c>
       <c r="R5">
-        <v>64417.28318283444</v>
+        <v>1437.907820958564</v>
       </c>
       <c r="S5">
-        <v>0.1324219508458541</v>
+        <v>0.05781436270741375</v>
       </c>
       <c r="T5">
-        <v>0.1324219508458541</v>
+        <v>0.05781436270741375</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -791,40 +791,40 @@
         <v>71.338966</v>
       </c>
       <c r="I6">
-        <v>0.089640487480229</v>
+        <v>0.3254051080913003</v>
       </c>
       <c r="J6">
-        <v>0.08964048748022899</v>
+        <v>0.3254051080913002</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L6">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M6">
-        <v>9.506851333333332</v>
+        <v>0.02564166666666666</v>
       </c>
       <c r="N6">
-        <v>28.520554</v>
+        <v>0.07692499999999999</v>
       </c>
       <c r="O6">
-        <v>0.04665929098818478</v>
+        <v>0.0006780701807970013</v>
       </c>
       <c r="P6">
-        <v>0.04665929098818478</v>
+        <v>0.0006780701807970013</v>
       </c>
       <c r="Q6">
-        <v>226.0696480119071</v>
+        <v>0.6097499955055555</v>
       </c>
       <c r="R6">
-        <v>2034.626832107164</v>
+        <v>5.487749959549999</v>
       </c>
       <c r="S6">
-        <v>0.004182561589662739</v>
+        <v>0.0002206475004757358</v>
       </c>
       <c r="T6">
-        <v>0.004182561589662738</v>
+        <v>0.0002206475004757357</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -853,10 +853,10 @@
         <v>71.338966</v>
       </c>
       <c r="I7">
-        <v>0.089640487480229</v>
+        <v>0.3254051080913003</v>
       </c>
       <c r="J7">
-        <v>0.08964048748022899</v>
+        <v>0.3254051080913002</v>
       </c>
       <c r="K7">
         <v>1</v>
@@ -865,28 +865,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M7">
-        <v>0.01112833333333334</v>
+        <v>0.01112833333333333</v>
       </c>
       <c r="N7">
         <v>0.033385</v>
       </c>
       <c r="O7">
-        <v>5.461746744612847E-05</v>
+        <v>0.0002942784918545062</v>
       </c>
       <c r="P7">
-        <v>5.461746744612847E-05</v>
+        <v>0.0002942784918545062</v>
       </c>
       <c r="Q7">
-        <v>0.2646279311011112</v>
+        <v>0.2646279311011111</v>
       </c>
       <c r="R7">
-        <v>2.381651379910001</v>
+        <v>2.38165137991</v>
       </c>
       <c r="S7">
-        <v>4.895936406806494E-06</v>
+        <v>9.575972445086043E-05</v>
       </c>
       <c r="T7">
-        <v>4.895936406806493E-06</v>
+        <v>9.575972445086041E-05</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -915,10 +915,10 @@
         <v>71.338966</v>
       </c>
       <c r="I8">
-        <v>0.089640487480229</v>
+        <v>0.3254051080913003</v>
       </c>
       <c r="J8">
-        <v>0.08964048748022899</v>
+        <v>0.3254051080913002</v>
       </c>
       <c r="K8">
         <v>2</v>
@@ -933,10 +933,10 @@
         <v>0.104612</v>
       </c>
       <c r="O8">
-        <v>0.0001711440019312383</v>
+        <v>0.0009221225577320236</v>
       </c>
       <c r="P8">
-        <v>0.0001711440019312383</v>
+        <v>0.0009221225577320235</v>
       </c>
       <c r="Q8">
         <v>0.829212434576889</v>
@@ -945,10 +945,10 @@
         <v>7.462911911191999</v>
       </c>
       <c r="S8">
-        <v>1.534143176243345E-05</v>
+        <v>0.0003000633905722155</v>
       </c>
       <c r="T8">
-        <v>1.534143176243345E-05</v>
+        <v>0.0003000633905722153</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -977,10 +977,10 @@
         <v>71.338966</v>
       </c>
       <c r="I9">
-        <v>0.089640487480229</v>
+        <v>0.3254051080913003</v>
       </c>
       <c r="J9">
-        <v>0.08964048748022899</v>
+        <v>0.3254051080913002</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -989,28 +989,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>194.1975953333333</v>
+        <v>37.74401233333333</v>
       </c>
       <c r="N9">
-        <v>582.592786</v>
+        <v>113.232037</v>
       </c>
       <c r="O9">
-        <v>0.9531149475424379</v>
+        <v>0.9981055287696164</v>
       </c>
       <c r="P9">
-        <v>0.9531149475424379</v>
+        <v>0.9981055287696164</v>
       </c>
       <c r="Q9">
-        <v>4617.951883588808</v>
+        <v>897.539604183749</v>
       </c>
       <c r="R9">
-        <v>41561.56695229928</v>
+        <v>8077.856437653742</v>
       </c>
       <c r="S9">
-        <v>0.08543768852239703</v>
+        <v>0.3247886374758015</v>
       </c>
       <c r="T9">
-        <v>0.08543768852239701</v>
+        <v>0.3247886374758014</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1033,46 +1033,46 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>5.456122</v>
+        <v>7.006365333333332</v>
       </c>
       <c r="H10">
-        <v>16.368366</v>
+        <v>21.019096</v>
       </c>
       <c r="I10">
-        <v>0.02056755781258178</v>
+        <v>0.09587637148905993</v>
       </c>
       <c r="J10">
-        <v>0.02056755781258178</v>
+        <v>0.09587637148905992</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L10">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M10">
-        <v>9.506851333333332</v>
+        <v>0.02564166666666666</v>
       </c>
       <c r="N10">
-        <v>28.520554</v>
+        <v>0.07692499999999999</v>
       </c>
       <c r="O10">
-        <v>0.04665929098818478</v>
+        <v>0.0006780701807970013</v>
       </c>
       <c r="P10">
-        <v>0.04665929098818478</v>
+        <v>0.0006780701807970013</v>
       </c>
       <c r="Q10">
-        <v>51.87054071052932</v>
+        <v>0.1796548844222222</v>
       </c>
       <c r="R10">
-        <v>466.8348663947639</v>
+        <v>1.6168939598</v>
       </c>
       <c r="S10">
-        <v>0.0009596676648935664</v>
+        <v>6.501090854974733E-05</v>
       </c>
       <c r="T10">
-        <v>0.0009596676648935663</v>
+        <v>6.501090854974732E-05</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1095,16 +1095,16 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>5.456122</v>
+        <v>7.006365333333332</v>
       </c>
       <c r="H11">
-        <v>16.368366</v>
+        <v>21.019096</v>
       </c>
       <c r="I11">
-        <v>0.02056755781258178</v>
+        <v>0.09587637148905993</v>
       </c>
       <c r="J11">
-        <v>0.02056755781258178</v>
+        <v>0.09587637148905992</v>
       </c>
       <c r="K11">
         <v>1</v>
@@ -1113,28 +1113,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M11">
-        <v>0.01112833333333334</v>
+        <v>0.01112833333333333</v>
       </c>
       <c r="N11">
         <v>0.033385</v>
       </c>
       <c r="O11">
-        <v>5.461746744612847E-05</v>
+        <v>0.0002942784918545062</v>
       </c>
       <c r="P11">
-        <v>5.461746744612847E-05</v>
+        <v>0.0002942784918545062</v>
       </c>
       <c r="Q11">
-        <v>0.06071754432333334</v>
+        <v>0.07796916888444443</v>
       </c>
       <c r="R11">
-        <v>0.5464578989100001</v>
+        <v>0.7017225199599999</v>
       </c>
       <c r="S11">
-        <v>1.123347919275051E-06</v>
+        <v>2.821435400628293E-05</v>
       </c>
       <c r="T11">
-        <v>1.12334791927505E-06</v>
+        <v>2.821435400628293E-05</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1157,16 +1157,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>5.456122</v>
+        <v>7.006365333333332</v>
       </c>
       <c r="H12">
-        <v>16.368366</v>
+        <v>21.019096</v>
       </c>
       <c r="I12">
-        <v>0.02056755781258178</v>
+        <v>0.09587637148905993</v>
       </c>
       <c r="J12">
-        <v>0.02056755781258178</v>
+        <v>0.09587637148905992</v>
       </c>
       <c r="K12">
         <v>2</v>
@@ -1181,22 +1181,22 @@
         <v>0.104612</v>
       </c>
       <c r="O12">
-        <v>0.0001711440019312383</v>
+        <v>0.0009221225577320236</v>
       </c>
       <c r="P12">
-        <v>0.0001711440019312383</v>
+        <v>0.0009221225577320235</v>
       </c>
       <c r="Q12">
-        <v>0.1902586115546667</v>
+        <v>0.2443166300835555</v>
       </c>
       <c r="R12">
-        <v>1.712327503992</v>
+        <v>2.198849670752</v>
       </c>
       <c r="S12">
-        <v>3.520014153997352E-06</v>
+        <v>8.840976490355761E-05</v>
       </c>
       <c r="T12">
-        <v>3.520014153997351E-06</v>
+        <v>8.840976490355758E-05</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1219,16 +1219,16 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>5.456122</v>
+        <v>7.006365333333332</v>
       </c>
       <c r="H13">
-        <v>16.368366</v>
+        <v>21.019096</v>
       </c>
       <c r="I13">
-        <v>0.02056755781258178</v>
+        <v>0.09587637148905993</v>
       </c>
       <c r="J13">
-        <v>0.02056755781258178</v>
+        <v>0.09587637148905992</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1237,28 +1237,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>194.1975953333333</v>
+        <v>37.74401233333333</v>
       </c>
       <c r="N13">
-        <v>582.592786</v>
+        <v>113.232037</v>
       </c>
       <c r="O13">
-        <v>0.9531149475424379</v>
+        <v>0.9981055287696164</v>
       </c>
       <c r="P13">
-        <v>0.9531149475424379</v>
+        <v>0.9981055287696164</v>
       </c>
       <c r="Q13">
-        <v>1059.565772245297</v>
+        <v>264.4483395531724</v>
       </c>
       <c r="R13">
-        <v>9536.091950207676</v>
+        <v>2380.035055978552</v>
       </c>
       <c r="S13">
-        <v>0.01960324678561494</v>
+        <v>0.09569473646160034</v>
       </c>
       <c r="T13">
-        <v>0.01960324678561494</v>
+        <v>0.09569473646160033</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1281,46 +1281,46 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>199.1856246666667</v>
+        <v>38.058136</v>
       </c>
       <c r="H14">
-        <v>597.556874</v>
+        <v>114.174408</v>
       </c>
       <c r="I14">
-        <v>0.7508559835661449</v>
+        <v>0.5207944221745548</v>
       </c>
       <c r="J14">
-        <v>0.7508559835661449</v>
+        <v>0.5207944221745548</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L14">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M14">
-        <v>9.506851333333332</v>
+        <v>0.02564166666666666</v>
       </c>
       <c r="N14">
-        <v>28.520554</v>
+        <v>0.07692499999999999</v>
       </c>
       <c r="O14">
-        <v>0.04665929098818478</v>
+        <v>0.0006780701807970013</v>
       </c>
       <c r="P14">
-        <v>0.04665929098818478</v>
+        <v>0.0006780701807970013</v>
       </c>
       <c r="Q14">
-        <v>1893.628121443132</v>
+        <v>0.9758740372666664</v>
       </c>
       <c r="R14">
-        <v>17042.6530929882</v>
+        <v>8.7828663354</v>
       </c>
       <c r="S14">
-        <v>0.03503440782743244</v>
+        <v>0.0003531351680019702</v>
       </c>
       <c r="T14">
-        <v>0.03503440782743244</v>
+        <v>0.0003531351680019702</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1343,16 +1343,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>199.1856246666667</v>
+        <v>38.058136</v>
       </c>
       <c r="H15">
-        <v>597.556874</v>
+        <v>114.174408</v>
       </c>
       <c r="I15">
-        <v>0.7508559835661449</v>
+        <v>0.5207944221745548</v>
       </c>
       <c r="J15">
-        <v>0.7508559835661449</v>
+        <v>0.5207944221745548</v>
       </c>
       <c r="K15">
         <v>1</v>
@@ -1361,28 +1361,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M15">
-        <v>0.01112833333333334</v>
+        <v>0.01112833333333333</v>
       </c>
       <c r="N15">
         <v>0.033385</v>
       </c>
       <c r="O15">
-        <v>5.461746744612847E-05</v>
+        <v>0.0002942784918545062</v>
       </c>
       <c r="P15">
-        <v>5.461746744612847E-05</v>
+        <v>0.0002942784918545062</v>
       </c>
       <c r="Q15">
-        <v>2.216604026498889</v>
+        <v>0.4235236234533333</v>
       </c>
       <c r="R15">
-        <v>19.94943623849</v>
+        <v>3.81171261108</v>
       </c>
       <c r="S15">
-        <v>4.100985223915469E-05</v>
+        <v>0.000153258597123767</v>
       </c>
       <c r="T15">
-        <v>4.100985223915469E-05</v>
+        <v>0.000153258597123767</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1405,16 +1405,16 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>199.1856246666667</v>
+        <v>38.058136</v>
       </c>
       <c r="H16">
-        <v>597.556874</v>
+        <v>114.174408</v>
       </c>
       <c r="I16">
-        <v>0.7508559835661449</v>
+        <v>0.5207944221745548</v>
       </c>
       <c r="J16">
-        <v>0.7508559835661449</v>
+        <v>0.5207944221745548</v>
       </c>
       <c r="K16">
         <v>2</v>
@@ -1429,22 +1429,22 @@
         <v>0.104612</v>
       </c>
       <c r="O16">
-        <v>0.0001711440019312383</v>
+        <v>0.0009221225577320236</v>
       </c>
       <c r="P16">
-        <v>0.0001711440019312383</v>
+        <v>0.0009221225577320235</v>
       </c>
       <c r="Q16">
-        <v>6.945735522543111</v>
+        <v>1.327112574410667</v>
       </c>
       <c r="R16">
-        <v>62.511619702888</v>
+        <v>11.944013169696</v>
       </c>
       <c r="S16">
-        <v>0.0001285044979015261</v>
+        <v>0.0004802362846281718</v>
       </c>
       <c r="T16">
-        <v>0.0001285044979015261</v>
+        <v>0.0004802362846281718</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1467,16 +1467,16 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>199.1856246666667</v>
+        <v>38.058136</v>
       </c>
       <c r="H17">
-        <v>597.556874</v>
+        <v>114.174408</v>
       </c>
       <c r="I17">
-        <v>0.7508559835661449</v>
+        <v>0.5207944221745548</v>
       </c>
       <c r="J17">
-        <v>0.7508559835661449</v>
+        <v>0.5207944221745548</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1485,28 +1485,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>194.1975953333333</v>
+        <v>37.74401233333333</v>
       </c>
       <c r="N17">
-        <v>582.592786</v>
+        <v>113.232037</v>
       </c>
       <c r="O17">
-        <v>0.9531149475424379</v>
+        <v>0.9981055287696164</v>
       </c>
       <c r="P17">
-        <v>0.9531149475424379</v>
+        <v>0.9981055287696164</v>
       </c>
       <c r="Q17">
-        <v>38681.36933523455</v>
+        <v>1436.466754567677</v>
       </c>
       <c r="R17">
-        <v>348132.324017111</v>
+        <v>12928.2007911091</v>
       </c>
       <c r="S17">
-        <v>0.7156520613885718</v>
+        <v>0.5198077921248009</v>
       </c>
       <c r="T17">
-        <v>0.7156520613885718</v>
+        <v>0.5198077921248009</v>
       </c>
     </row>
   </sheetData>
